--- a/biology/Botanique/Commissaire_Delmotte/Commissaire_Delmotte.xlsx
+++ b/biology/Botanique/Commissaire_Delmotte/Commissaire_Delmotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Commissaire Delmotte est une variété ancienne  de poire.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Obtentenue à partir de pépins de Doyenné d'Hiver par Xavier Grégoire, tanneur de Jodoigne, la variété est dédiée à M. Delmotte, commissaire d'arrondissement à Nivelles, Belgique. Sa première fructification date de 1852 ou 1853[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obtentenue à partir de pépins de Doyenné d'Hiver par Xavier Grégoire, tanneur de Jodoigne, la variété est dédiée à M. Delmotte, commissaire d'arrondissement à Nivelles, Belgique. Sa première fructification date de 1852 ou 1853.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La « Commissaire-Delmotte » est une poire à peau rude et supportant bien les fatigues du transport. Le fruit est assez gros et de bonne qualité. L'arbre pousse bien et finit par être d'un rapport avantageux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « Commissaire-Delmotte » est une poire à peau rude et supportant bien les fatigues du transport. Le fruit est assez gros et de bonne qualité. L'arbre pousse bien et finit par être d'un rapport avantageux.
 </t>
         </is>
       </c>
